--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0756775F-A7FD-6747-96E0-1036D4A40429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B760F-2E35-AD47-B159-F3B83D2FF74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="540" windowWidth="28040" windowHeight="17600" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
+    <workbookView xWindow="1840" yWindow="540" windowWidth="25500" windowHeight="15140" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Reconcile" sheetId="2" r:id="rId1"/>
-    <sheet name="openRefine_CSV-reconcile" sheetId="1" r:id="rId2"/>
-    <sheet name="openRefine_reconcile-csv" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="openRefine_CSV-reconcile" sheetId="1" r:id="rId3"/>
+    <sheet name="openRefine_reconcile-csv" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>/nalt4ma/issues/75</t>
   </si>
@@ -125,6 +126,57 @@
   </si>
   <si>
     <t>There were no duplicates in the nalt preflabel.tsv - which is expected because according to SKOS primer preflabels should be unique. There can be one preflabel but in different languages</t>
+  </si>
+  <si>
+    <t>100% Matched Output</t>
+  </si>
+  <si>
+    <t>Save as pref_label_matched.csv</t>
+  </si>
+  <si>
+    <t>Unmatched Output</t>
+  </si>
+  <si>
+    <t>Save as pref_label_unmatched.csv</t>
+  </si>
+  <si>
+    <t>save as pref_label_unmatched_100.csv</t>
+  </si>
+  <si>
+    <t>Reconcile to alt_label_suffix.tsv</t>
+  </si>
+  <si>
+    <t>100%  Matched Output</t>
+  </si>
+  <si>
+    <t>Save as alt_label_matched.csv</t>
+  </si>
+  <si>
+    <t>Save as alt_label_unmatched.csv</t>
+  </si>
+  <si>
+    <t>100% Unmatched Output</t>
+  </si>
+  <si>
+    <t>results_100%_matched.py</t>
+  </si>
+  <si>
+    <t>results_100%_unmatched.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 100% unmatched - &gt; save as new SME list </t>
+  </si>
+  <si>
+    <t>Reconcile SME list with the pref_label.tsv</t>
+  </si>
+  <si>
+    <t>Run results_100%_matched.py</t>
+  </si>
+  <si>
+    <t>Run results_100%_unmatched.py</t>
+  </si>
+  <si>
+    <t>Run umatched_pref_label.py</t>
   </si>
 </sst>
 </file>
@@ -135,7 +187,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +218,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -203,7 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -215,6 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -277,10 +339,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7772400" cy="2130552"/>
     <xdr:pic>
@@ -304,7 +366,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9118600" y="1981200"/>
+          <a:off x="9144000" y="2019300"/>
           <a:ext cx="7772400" cy="2130552"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -475,6 +537,888 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A511E149-6199-53D7-DE9E-5F910D945920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="952500"/>
+          <a:ext cx="3238500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE0E1F7-21FE-0B4D-B983-91803B0F4237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="1866900"/>
+          <a:ext cx="2146300" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9232FB19-DB41-AE40-A5D3-44B1121C1BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893300" y="1841500"/>
+          <a:ext cx="2222500" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED86B870-E70F-7E4D-8CC7-488C68CD5394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="2870200"/>
+          <a:ext cx="2578100" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F040D27-DB2B-9849-9739-A05ECB58FDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11531600" y="2857500"/>
+          <a:ext cx="2895600" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305DE0D8-B0FA-2B46-AFDD-4907AC7F900E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10693400" y="3708400"/>
+          <a:ext cx="2108200" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879B436A-0553-EB4A-9E60-0DA8C1A624A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13195300" y="4737100"/>
+          <a:ext cx="2146300" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A25E6E6-247D-1BB8-7883-04C00CA00E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7943850" y="1219200"/>
+          <a:ext cx="1644650" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3D9588-56F3-57CC-3491-4A4261496E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10528300" y="2330450"/>
+          <a:ext cx="1593850" cy="3689350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3B23F8-A2D2-352B-1443-0ED46C0006AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6851650" y="1384300"/>
+          <a:ext cx="2159000" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092EC101-98F4-F1BC-55BB-070CF614980D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="1384300"/>
+          <a:ext cx="1993900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ACFB0A-ADB1-9D31-43B2-A863093757F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9480550" y="2489200"/>
+          <a:ext cx="1524000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76982F70-19DE-5F40-DE35-C204C2166EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11004550" y="2489200"/>
+          <a:ext cx="1974850" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E42093-8B8A-E068-A1BA-3842CA7223FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11747500" y="3365500"/>
+          <a:ext cx="1231900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47E1CEB-CC24-3E3F-A906-44082462B491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12979400" y="3365500"/>
+          <a:ext cx="1289050" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -522,7 +1466,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1035,10 +1979,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA9761-E1C6-1040-B119-F087A7AF99DC}">
+  <dimension ref="B6:K26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB8FEAC-5678-D649-AFA7-356860D4D04C}">
   <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98471831-45E3-D043-9344-816190C04FBF}">
   <dimension ref="B2:Y16"/>
   <sheetViews>

--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B760F-2E35-AD47-B159-F3B83D2FF74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE8DDA-CC5C-E047-AC22-E2C0289BAC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="540" windowWidth="25500" windowHeight="15140" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
+    <workbookView xWindow="420" yWindow="660" windowWidth="18540" windowHeight="15520" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Reconcile" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>/nalt4ma/issues/75</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Save as pref_label_unmatched.csv</t>
   </si>
   <si>
-    <t>save as pref_label_unmatched_100.csv</t>
-  </si>
-  <si>
-    <t>Reconcile to alt_label_suffix.tsv</t>
-  </si>
-  <si>
     <t>100%  Matched Output</t>
   </si>
   <si>
@@ -161,15 +155,6 @@
     <t>results_100%_matched.py</t>
   </si>
   <si>
-    <t>results_100%_unmatched.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 100% unmatched - &gt; save as new SME list </t>
-  </si>
-  <si>
-    <t>Reconcile SME list with the pref_label.tsv</t>
-  </si>
-  <si>
     <t>Run results_100%_matched.py</t>
   </si>
   <si>
@@ -177,6 +162,42 @@
   </si>
   <si>
     <t>Run umatched_pref_label.py</t>
+  </si>
+  <si>
+    <t>Reconcile SME list with the nalt_pref_label.tsv</t>
+  </si>
+  <si>
+    <t>Reconcile new SME list to nalt_altlabel_suffix.tsv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_100%_unmatched.py </t>
+  </si>
+  <si>
+    <t>creates a list of all the SME labels that score &lt; 100% after being reconciled to NALT alt and pref labels</t>
+  </si>
+  <si>
+    <t>so, these are the SME labels not in the NALT</t>
+  </si>
+  <si>
+    <t>creates a list of the SME labels that were 100% matched to a NALT alt label or pref label</t>
+  </si>
+  <si>
+    <t>umatched_pref_label.py</t>
+  </si>
+  <si>
+    <t>Saved as pref_label_unmatched_100.csv</t>
+  </si>
+  <si>
+    <t>creates and saves a list of SME labels that were unmatched but scored 100%</t>
+  </si>
+  <si>
+    <t>creates and saves a list of SME labels that were unmatched and score &lt; 100%</t>
+  </si>
+  <si>
+    <t>creates a list of the SME labels that scored 100% but were unmatched                                                     (so there exists a NALT pref / alt label that is very similar but differs by only a case difference / comma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 100% unmatched ---&gt; Saved as new SME list </t>
   </si>
 </sst>
 </file>
@@ -187,7 +208,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +252,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -272,11 +322,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -539,15 +611,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -563,13 +635,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="952500"/>
-          <a:ext cx="3238500" cy="431800"/>
+          <a:off x="2438400" y="952500"/>
+          <a:ext cx="3619500" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -605,15 +682,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -628,208 +705,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5778500" y="1866900"/>
-          <a:ext cx="2146300" cy="444500"/>
+          <a:off x="1562100" y="1041400"/>
+          <a:ext cx="2209800" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9232FB19-DB41-AE40-A5D3-44B1121C1BF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9893300" y="1841500"/>
-          <a:ext cx="2222500" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED86B870-E70F-7E4D-8CC7-488C68CD5394}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191500" y="2870200"/>
-          <a:ext cx="2578100" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F040D27-DB2B-9849-9739-A05ECB58FDCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11531600" y="2857500"/>
-          <a:ext cx="2895600" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -866,21 +753,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305DE0D8-B0FA-2B46-AFDD-4907AC7F900E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9232FB19-DB41-AE40-A5D3-44B1121C1BF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,13 +775,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10693400" y="3708400"/>
-          <a:ext cx="2108200" cy="647700"/>
+          <a:off x="4368800" y="1854200"/>
+          <a:ext cx="2273300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -929,23 +821,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879B436A-0553-EB4A-9E60-0DA8C1A624A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED86B870-E70F-7E4D-8CC7-488C68CD5394}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,13 +845,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13195300" y="4737100"/>
-          <a:ext cx="2146300" cy="673100"/>
+          <a:off x="2730500" y="2451100"/>
+          <a:ext cx="2628900" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -994,16 +891,226 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F040D27-DB2B-9849-9739-A05ECB58FDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="2857500"/>
+          <a:ext cx="3810000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305DE0D8-B0FA-2B46-AFDD-4907AC7F900E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5194300" y="3708400"/>
+          <a:ext cx="2108200" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879B436A-0553-EB4A-9E60-0DA8C1A624A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="4102100"/>
+          <a:ext cx="2209800" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1020,12 +1127,20 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7943850" y="1219200"/>
-          <a:ext cx="1644650" cy="3829050"/>
+          <a:off x="3775075" y="377825"/>
+          <a:ext cx="1644650" cy="3860800"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1046,16 +1161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1067,17 +1182,27 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10528300" y="2330450"/>
-          <a:ext cx="1593850" cy="3689350"/>
+          <a:off x="5010150" y="1790700"/>
+          <a:ext cx="1720850" cy="3651250"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1098,16 +1223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1125,12 +1250,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6851650" y="1384300"/>
-          <a:ext cx="2159000" cy="482600"/>
+          <a:off x="2667000" y="571500"/>
+          <a:ext cx="2406650" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1151,16 +1281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1178,12 +1308,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="1384300"/>
-          <a:ext cx="1993900" cy="457200"/>
+          <a:off x="3702050" y="1384300"/>
+          <a:ext cx="1803400" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1204,16 +1339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1231,12 +1366,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9480550" y="2489200"/>
-          <a:ext cx="1524000" cy="381000"/>
+          <a:off x="4044950" y="2095500"/>
+          <a:ext cx="1460500" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1257,15 +1397,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1284,12 +1424,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11004550" y="2489200"/>
-          <a:ext cx="1974850" cy="368300"/>
+          <a:off x="5505450" y="2501900"/>
+          <a:ext cx="2432050" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1310,15 +1455,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1337,12 +1482,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11747500" y="3365500"/>
-          <a:ext cx="1231900" cy="342900"/>
+          <a:off x="6248400" y="3365500"/>
+          <a:ext cx="1689100" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1363,16 +1513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1390,12 +1540,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12979400" y="3365500"/>
-          <a:ext cx="1289050" cy="1371600"/>
+          <a:off x="7937500" y="2755900"/>
+          <a:ext cx="863600" cy="1346200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1840,39 +1995,39 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -1890,55 +2045,55 @@
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -1980,96 +2135,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA9761-E1C6-1040-B119-F087A7AF99DC}">
-  <dimension ref="B6:K26"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
+    <row r="2" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F7" s="9"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I15" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I17" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="L20" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="15">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="H21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K25" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
+    <row r="28" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C32:H34"/>
+    <mergeCell ref="C23:J24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE8DDA-CC5C-E047-AC22-E2C0289BAC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09C12C-5756-BF49-9DBF-E12266D033E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="660" windowWidth="18540" windowHeight="15520" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
+    <workbookView xWindow="420" yWindow="660" windowWidth="29640" windowHeight="15860" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Reconcile" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>/nalt4ma/issues/75</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Unmatched Output</t>
   </si>
   <si>
-    <t>Save as pref_label_unmatched.csv</t>
-  </si>
-  <si>
     <t>100%  Matched Output</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Save as alt_label_unmatched.csv</t>
   </si>
   <si>
-    <t>100% Unmatched Output</t>
-  </si>
-  <si>
     <t>results_100%_matched.py</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>umatched_pref_label.py</t>
   </si>
   <si>
-    <t>Saved as pref_label_unmatched_100.csv</t>
-  </si>
-  <si>
     <t>creates and saves a list of SME labels that were unmatched but scored 100%</t>
   </si>
   <si>
@@ -197,7 +188,28 @@
     <t>creates a list of the SME labels that scored 100% but were unmatched                                                     (so there exists a NALT pref / alt label that is very similar but differs by only a case difference / comma)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; 100% unmatched ---&gt; Saved as new SME list </t>
+    <t>100% Unmatched</t>
+  </si>
+  <si>
+    <t>Saved as alt_label_unmatched.csv</t>
+  </si>
+  <si>
+    <t>&lt; 100% Unmatched</t>
+  </si>
+  <si>
+    <t>saved as SME_Label_Not_In_The_NALT.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Unmatched </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 100% Unmatched ---&gt; Saved as new SME list </t>
+  </si>
+  <si>
+    <t>Saved as pref_label_unmatched.csv</t>
+  </si>
+  <si>
+    <t>Save as unmatched_pref_label.csv</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -323,14 +335,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -341,13 +347,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -827,8 +838,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -845,8 +856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2730500" y="2451100"/>
-          <a:ext cx="2628900" cy="508000"/>
+          <a:off x="3581400" y="2044700"/>
+          <a:ext cx="2362200" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1031,15 +1042,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,7 +1066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="4102100"/>
+          <a:off x="9334500" y="2882900"/>
           <a:ext cx="2209800" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1162,15 +1173,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1184,13 +1195,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="8" idx="1"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5010150" y="1790700"/>
-          <a:ext cx="1720850" cy="3651250"/>
+          <a:off x="5832475" y="1482725"/>
+          <a:ext cx="1619250" cy="3759200"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1340,7 +1351,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
@@ -1366,8 +1377,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4044950" y="2095500"/>
-          <a:ext cx="1460500" cy="355600"/>
+          <a:off x="4762500" y="1689100"/>
+          <a:ext cx="1593850" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1519,9 +1530,9 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1540,8 +1551,264 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7937500" y="2755900"/>
-          <a:ext cx="863600" cy="1346200"/>
+          <a:off x="8788400" y="2552700"/>
+          <a:ext cx="1651000" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76276EC-30E0-C84F-95C6-40A643F09D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8521700" y="3924300"/>
+          <a:ext cx="2324100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079572C5-C0D2-554A-9CD9-8C192511DB59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11023600" y="3937000"/>
+          <a:ext cx="2832100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B16B93-B630-61F8-FCCE-468DA7B23DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="3632200"/>
+          <a:ext cx="2000250" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE673EF-E9D5-F512-F762-0AB7B1E021C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9683750" y="3632200"/>
+          <a:ext cx="755650" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1995,39 +2262,39 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -2045,55 +2312,55 @@
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M55" s="9" t="s">
+      <c r="M55" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -2135,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA9761-E1C6-1040-B119-F087A7AF99DC}">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:O34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2146,220 +2413,239 @@
     <col min="1" max="1" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="19" x14ac:dyDescent="0.25">
       <c r="E2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H8" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="11" t="s">
+      <c r="M15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M17" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="L20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="13">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I15" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I17" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="15">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+      <c r="C27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13">
         <v>1</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="L20" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C32:H34"/>
-    <mergeCell ref="C23:J24"/>
+    <mergeCell ref="C23:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64CA0D3-47C8-8A46-8DCA-622E8EFD07F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C7753-C8F4-F248-A513-C6765FE0C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="660" windowWidth="19320" windowHeight="13100" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>

--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C7753-C8F4-F248-A513-C6765FE0C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED9247-8979-BC49-8311-81CF81BB7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="660" windowWidth="19320" windowHeight="13100" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
+    <workbookView xWindow="420" yWindow="660" windowWidth="19320" windowHeight="13100" activeTab="3" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Process 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Process2 " sheetId="6" r:id="rId2"/>
-    <sheet name="Reconcile" sheetId="2" r:id="rId3"/>
+    <sheet name="Process 2 " sheetId="6" r:id="rId2"/>
+    <sheet name="Reconcile" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="openRefine_CSV-reconcile" sheetId="1" r:id="rId4"/>
-    <sheet name="openRefine_reconcile-csv" sheetId="4" r:id="rId5"/>
+    <sheet name="openRefine_reconcile-csv" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3100,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7228560-4F41-2942-A530-AF3E607FB31F}">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C23" sqref="C23:H25"/>
     </sheetView>
   </sheetViews>
@@ -3431,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB8FEAC-5678-D649-AFA7-356860D4D04C}">
   <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED9247-8979-BC49-8311-81CF81BB7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7537E8-3FBD-AD4E-B540-B2D849521D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="660" windowWidth="19320" windowHeight="13100" activeTab="3" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
+    <workbookView xWindow="420" yWindow="660" windowWidth="23500" windowHeight="15800" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Process 1" sheetId="5" r:id="rId1"/>
@@ -222,19 +222,19 @@
     <t>Save as label_unmatched.csv</t>
   </si>
   <si>
-    <t>Run umatched_label.py</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt; 100% Unmatched </t>
   </si>
   <si>
-    <t>run results_100%_matched.py</t>
-  </si>
-  <si>
     <t>Saved as label_unmatched_100.csv</t>
   </si>
   <si>
     <t>creates and saves a list of SME labels that were unmatched and score &lt; 100% - these are the labels not in the NALT</t>
+  </si>
+  <si>
+    <t>Run Results_Unmatched.py</t>
+  </si>
+  <si>
+    <t>run Perfect_Matches.py</t>
   </si>
 </sst>
 </file>
@@ -380,10 +380,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2980,25 +2980,25 @@
       <c r="B23" s="13">
         <v>1</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,28 +3063,28 @@
       <c r="J29" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3100,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7228560-4F41-2942-A530-AF3E607FB31F}">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:H25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -3143,12 +3143,12 @@
         <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
@@ -3182,7 +3182,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -3227,28 +3227,28 @@
       <c r="J20" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3289,39 +3289,39 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -3339,55 +3339,55 @@
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M55" s="18" t="s">
+      <c r="M55" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -3431,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB8FEAC-5678-D649-AFA7-356860D4D04C}">
   <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
+++ b/CSV-Reconcile_Process/Notes/Reconciliation Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7537E8-3FBD-AD4E-B540-B2D849521D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4EC30-FB36-1848-AC72-BE20A83B944D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="660" windowWidth="23500" windowHeight="15800" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>/nalt4ma/issues/75</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Save as unmatched_pref_label.csv</t>
   </si>
   <si>
-    <t>Reconcile SME list with the nalt_labels.tsv</t>
-  </si>
-  <si>
     <t>Save as label_matched.csv</t>
   </si>
   <si>
@@ -231,10 +228,10 @@
     <t>creates and saves a list of SME labels that were unmatched and score &lt; 100% - these are the labels not in the NALT</t>
   </si>
   <si>
-    <t>Run Results_Unmatched.py</t>
-  </si>
-  <si>
-    <t>run Perfect_Matches.py</t>
+    <t>Reconcile SME list with the nalt_label_suffix.tsv</t>
+  </si>
+  <si>
+    <t>Matches.py</t>
   </si>
 </sst>
 </file>
@@ -350,7 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -384,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1707,8 +1707,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1724,7 +1724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1041400" y="1041400"/>
-          <a:ext cx="2209800" cy="711200"/>
+          <a:ext cx="2209800" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1777,8 +1777,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1794,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5219700" y="1041400"/>
-          <a:ext cx="2273300" cy="647700"/>
+          <a:ext cx="2273300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1910,15 +1910,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1933,8 +1933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883400" y="2044700"/>
-          <a:ext cx="3810000" cy="508000"/>
+          <a:off x="6781800" y="2070100"/>
+          <a:ext cx="3060700" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2097,8 +2097,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -2122,8 +2122,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4762500" y="1689100"/>
-          <a:ext cx="1593850" cy="355600"/>
+          <a:off x="4762500" y="1536700"/>
+          <a:ext cx="1593850" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2155,14 +2155,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2180,8 +2180,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6356350" y="1689100"/>
-          <a:ext cx="2432050" cy="355600"/>
+          <a:off x="6356350" y="1536700"/>
+          <a:ext cx="1955800" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3101,7 +3101,7 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3111,11 +3111,11 @@
   <sheetData>
     <row r="2" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="E2" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -3124,45 +3124,37 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="17" t="s">
-        <v>45</v>
+      <c r="C15" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
@@ -3172,48 +3164,31 @@
         <v>46</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="13">
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15" t="s">
-        <v>35</v>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
